--- a/data/books.xlsx
+++ b/data/books.xlsx
@@ -1598,7 +1598,7 @@
     <t>NRTIA</t>
   </si>
   <si>
-    <t>BORROWED</t>
+    <t>LENT</t>
   </si>
   <si>
     <t>AVAILABLE</t>
